--- a/Notes/AZ-204_Summary.xlsx
+++ b/Notes/AZ-204_Summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19113F-425A-4155-AD07-1FA13FD54411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="981">
   <si>
     <t>Use VMs: 1/2</t>
   </si>
@@ -2967,11 +2966,160 @@
   <si>
     <t>Configure autoscale notifications</t>
   </si>
+  <si>
+    <t>Deloyment slots</t>
+  </si>
+  <si>
+    <t>Support for Standard, Premium, or Isolated App Service plan tier</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Validate app changes before swapping</t>
+  </si>
+  <si>
+    <t>Makes sure all instances of the slot warmed -&gt; This eliminates downtime when you deploy your app</t>
+  </si>
+  <si>
+    <t>After a swap, if the changes aren't as you expect, you can perform swap immediately</t>
+  </si>
+  <si>
+    <t>Settings that are swapped</t>
+  </si>
+  <si>
+    <t>General settings, such as framework version, 32/64-bit, web sockets</t>
+  </si>
+  <si>
+    <t>App settings (can be configured to stick to a slot)</t>
+  </si>
+  <si>
+    <t>Connection strings (can be configured to stick to a slot)</t>
+  </si>
+  <si>
+    <t>Handler mappings</t>
+  </si>
+  <si>
+    <t>Public certificates</t>
+  </si>
+  <si>
+    <t>WebJobs content</t>
+  </si>
+  <si>
+    <t>Path mappings</t>
+  </si>
+  <si>
+    <t>Hybrid connections (are planned to be unswapped)</t>
+  </si>
+  <si>
+    <t>Azure Content Delivery Network (are planned to be unswapped)</t>
+  </si>
+  <si>
+    <t>Service endpoints (are planned to be unswapped)</t>
+  </si>
+  <si>
+    <t>Settings that aren't swapped</t>
+  </si>
+  <si>
+    <t>Publishing endpoints</t>
+  </si>
+  <si>
+    <t>Custom domain names</t>
+  </si>
+  <si>
+    <t>Non-public certificates and TLS/SSL settings</t>
+  </si>
+  <si>
+    <t>Scale settings</t>
+  </si>
+  <si>
+    <t>WebJobs schedulers</t>
+  </si>
+  <si>
+    <t>IP restrictions</t>
+  </si>
+  <si>
+    <t>Always On</t>
+  </si>
+  <si>
+    <t>Diagnostic log settings</t>
+  </si>
+  <si>
+    <t>Cross-origin resource sharing (CORS)</t>
+  </si>
+  <si>
+    <t>Settings that end with the suffix _EXTENSION_VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** To make settings swappable, add the app setting WEBSITE_OVERRIDE_PRESERVE_DEFAULT_STICKY_SLOT_SETTINGS in every slot of the app and set its value to 0 or false. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These settings are either all swappable or not at all. You can't make just some settings swappable and not the others. </t>
+  </si>
+  <si>
+    <t>Managed identities are never swapped and are not affected by this override app setting.</t>
+  </si>
+  <si>
+    <t>** Auto swap isn't currently supported in web apps on Linux and Web App for Containers.</t>
+  </si>
+  <si>
+    <t>Specify custom warm-up</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applicationInitialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> configuration element in web.config lets you specify custom initialization actions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Route traffic</t>
+  </si>
+  <si>
+    <t>You can route a portion of the traffic to another slot. This feature is useful if you need user feedback for a new update, but you're not ready to release it to production.</t>
+  </si>
+  <si>
+    <t>automatically</t>
+  </si>
+  <si>
+    <t>manually</t>
+  </si>
+  <si>
+    <t>A request that's routed to the "staging" slot has the cookie x-ms-routing-name=staging</t>
+  </si>
+  <si>
+    <t>A request that's routed to the production slot has the cookie x-ms-routing-name=self</t>
+  </si>
+  <si>
+    <t>you use the x-ms-routing-name query parameter</t>
+  </si>
+  <si>
+    <t>After the setting is saved, the specified percentage of clients is randomly routed to the non-production slot. (By default, new slots are given a routing rule of 0%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3400,14 +3548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3423,7 +3571,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3431,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3439,7 +3587,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3447,7 +3595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3455,7 +3603,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3463,7 +3611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3619,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3479,7 +3627,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -3487,7 +3635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3495,7 +3643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3651,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3511,7 +3659,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3519,7 +3667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3527,7 +3675,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3543,7 +3691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -3551,7 +3699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3559,7 +3707,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -3567,7 +3715,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3575,7 +3723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3583,7 +3731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3591,7 +3739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
@@ -3605,61 +3753,61 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>352</v>
       </c>
@@ -3667,7 +3815,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>353</v>
       </c>
@@ -3675,7 +3823,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>372</v>
       </c>
@@ -3683,7 +3831,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>354</v>
       </c>
@@ -3691,224 +3839,224 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>408</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3916,363 +4064,363 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D63" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D80" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>618</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4280,380 +4428,380 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="C28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="C29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="C30" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="C31" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="C34" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="D35" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="C37" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="D38" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="C40" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="D41" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="C43" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="D44" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="C46" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="D47" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="C49" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="D50" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="D51" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
       <c r="C53" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="D54" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4661,476 +4809,476 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" s="7" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="19" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" s="7" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" s="7" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" s="7" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C73" s="7" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" s="7" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" s="7" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" s="7" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="7" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="7" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92" s="7" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99" s="7" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D101" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D102" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D103" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D105" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D106" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108" s="7" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>831</v>
       </c>
@@ -5141,777 +5289,777 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B109" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B121" s="1">
         <v>1433</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B136" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B140" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B148" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B152" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B168" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B172" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B176" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B180" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="https://docs.microsoft.com/en-us/azure/logic-apps/manage-logic-apps-with-visual-studio" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B67" r:id="rId2" display="https://docs.microsoft.com/en-us/azure/cdn/cdn-features" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId1" display="https://docs.microsoft.com/en-us/azure/logic-apps/manage-logic-apps-with-visual-studio"/>
+    <hyperlink ref="B67" r:id="rId2" display="https://docs.microsoft.com/en-us/azure/cdn/cdn-features"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5919,549 +6067,769 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="O155" sqref="O155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D76" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D80" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B84" s="7" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B92" s="7" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B93" s="7" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B96" s="7" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B98" s="7" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D103" s="20" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E104" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D105" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E106" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>938</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B111" s="7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B112" s="7" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B127" s="7" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140" s="7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144" s="7" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B146" s="7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B149" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C151" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D152" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D154" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C155" s="7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -6471,488 +6839,488 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="13"/>
+    <col min="1" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="13" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" s="13" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E6" s="13" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="13" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="13" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="13" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="13" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="13" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="C41" s="13" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="13" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="13" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="13" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="13" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="13" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
     </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B68" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B71" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B72" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B75" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B76" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B80" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C81" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B82" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C83" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C85" s="13" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B86" s="13" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C87" s="13" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D88" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D89" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" s="13" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" s="13" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" s="13" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B97" s="13" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B100" s="13" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B103" s="13" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B104" s="13" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B105" s="13" t="s">
         <v>666</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A61" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A62" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A63" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A61" r:id="rId1"/>
+    <hyperlink ref="A62" r:id="rId2"/>
+    <hyperlink ref="A63" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -6960,479 +7328,479 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D84" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D87" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C93" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D103" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D104" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114" t="s">
         <v>569</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A24" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A46" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A47" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="A63" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A24" r:id="rId3"/>
+    <hyperlink ref="A46" r:id="rId4"/>
+    <hyperlink ref="A47" r:id="rId5"/>
+    <hyperlink ref="A63" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -7440,283 +7808,283 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="19"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
       <c r="B38" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="19"/>
       <c r="C39" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="19"/>
       <c r="C40" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="19"/>
       <c r="B42" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="19"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="18"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="18"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A48" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A63" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A64" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A48" r:id="rId1"/>
+    <hyperlink ref="A63" r:id="rId2"/>
+    <hyperlink ref="A64" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -7724,687 +8092,687 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>445</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D75" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D76" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D106" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D107" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D108" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D109" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D111" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D113" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D116" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D118" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D119" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D121" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D122" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D124" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D125" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C127" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D128" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D129" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D131" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E132" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C134" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D135" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D136" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E137" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E138" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D139" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D140" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C142" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C143" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C144" t="s">
         <v>763</v>
       </c>
@@ -8416,156 +8784,156 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A28" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Notes/AZ-204_Summary.xlsx
+++ b/Notes/AZ-204_Summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E9C80-90EC-47AD-850D-B737BCFCA996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Azure App Service" sheetId="14" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1010">
   <si>
     <t>What Azure command line tool for Windows and Linux is designed to copy data to and from a Blob storage account, across containers, and across storage accounts?</t>
   </si>
@@ -741,18 +740,6 @@
     <t>Event Hub</t>
   </si>
   <si>
-    <t>https://www.serverless360.com/blog/azure-event-hubs-vs-service-bus#:~:text=Azure%20Event%20Hubs%20focuses%20more,should%20use%20Azure%20Service%20Bus.</t>
-  </si>
-  <si>
-    <t>Khác nhau lớn nhất</t>
-  </si>
-  <si>
-    <t>Service: Focus vào relationship giữa người gửi và người nhận, người nhận có thể xóa (vì người nhận khi đọc sẽ là đọc trên 1 bản copy của chính người nhận)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PpXP5-NhbSA&amp;ab_channel=SriGunnala-TechTalks</t>
-  </si>
-  <si>
     <t>Ưu điểm: Có thể tiếp nhận hàng triệu message với tốc độ rất nhanh, và phân tích chúng</t>
   </si>
   <si>
@@ -765,15 +752,6 @@
     <t>Event Grid: Event hub nhận message, sau đó  chuyển đến Event Grid và trigger các service khác như Azure Function, Logic App</t>
   </si>
   <si>
-    <t>Event Hub: Dùng để để tiếp nhận 1 lượng lớn message, người nhận có thể đọc nhưng ko thể xóa (mô hình consumer, phù hợp collect data và thống kê)</t>
-  </si>
-  <si>
-    <t>(mô hình topic - queue, phù hợp nhiều subcribe tiếp nhận message và sau đó filter message sau)</t>
-  </si>
-  <si>
-    <t>Event Grid: Dùng để tiếp nhận và push cho người nhận mỗi khi được trigger (phù hợp event real time, có thể filter message trước khi gửi)</t>
-  </si>
-  <si>
     <t>2 types of managed identities</t>
   </si>
   <si>
@@ -1122,9 +1100,6 @@
     <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/pre-aggregated-metrics-log-metrics</t>
   </si>
   <si>
-    <t>https://learn.microsoft.com/en-us/training/paths/az-204-develop-message-based-solutions/</t>
-  </si>
-  <si>
     <t>Metadata của Blog storage dùng PUT</t>
   </si>
   <si>
@@ -1210,9 +1185,6 @@
   </si>
   <si>
     <t>For HTTP triggers, new instances are allocated, at most, once per second. For non-HTTP triggers, new instances are allocated, at most, once every 30 seconds.</t>
-  </si>
-  <si>
-    <t>https://learn.microsoft.com/en-us/training/paths/az-204-develop-event-based-solutions/</t>
   </si>
   <si>
     <t>Retry policy</t>
@@ -3088,11 +3060,152 @@
   <si>
     <t>** Azure Container Apps provides built-in authentication and authorization features to secure your external ingress-enabled container app with minimal or no code.</t>
   </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/azure/service-bus-messaging/compare-messaging-services</t>
+  </si>
+  <si>
+    <t>Comparing</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Là 1 lighweight notification, publisher phát hành và consumer tự quyết định làm gì với nó</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Là raw data, publisher phát hành và đặt ra cách xử lý mong muốn của consumer đối với nó</t>
+  </si>
+  <si>
+    <t>Azure Event Grid</t>
+  </si>
+  <si>
+    <t>Có các tính chất sau:</t>
+  </si>
+  <si>
+    <t>Dynamically scalable</t>
+  </si>
+  <si>
+    <t>Là service để xử lý event, sử dụng model publish-subscribe</t>
+  </si>
+  <si>
+    <t>Low cost</t>
+  </si>
+  <si>
+    <t>Serverless</t>
+  </si>
+  <si>
+    <t>At least once delivery of an event</t>
+  </si>
+  <si>
+    <t>Azure Event Hubs</t>
+  </si>
+  <si>
+    <t>Là service xử lý event và là 1 platform streaming big data</t>
+  </si>
+  <si>
+    <t>Low latency</t>
+  </si>
+  <si>
+    <t>Can receive and process millions of events per second</t>
+  </si>
+  <si>
+    <t>Azure Service Bus</t>
+  </si>
+  <si>
+    <t>Được tích hợp sâu với các Azure service và có thể tích hợp với các third party service, thường được sử dụng kết nối các service với nhau</t>
+  </si>
+  <si>
+    <t>Thường được dùng để tiếp nhận lượng lớn data theo thời gian thực</t>
+  </si>
+  <si>
+    <t>Là service xử lý message, sử dụng queue message và mô hình publish-subscribe topics</t>
+  </si>
+  <si>
+    <t>Reliable asynchronous message delivery (enterprise messaging as a service) that requires polling</t>
+  </si>
+  <si>
+    <t>Advanced messaging features like first-in and first-out (FIFO), batching/sessions, transactions, dead-lettering, temporal control, routing and filtering, and duplicate detection</t>
+  </si>
+  <si>
+    <t>At least once delivery of a message</t>
+  </si>
+  <si>
+    <t>Optional ordered delivery of messages</t>
+  </si>
+  <si>
+    <t>Using for: React to status changes</t>
+  </si>
+  <si>
+    <t>Using for: Telemetry and distributed data streaming</t>
+  </si>
+  <si>
+    <t>Using for: Order processing and financial transactions</t>
+  </si>
+  <si>
+    <t>Thường dùng nếu cần xử lý message theo transaction, order, duplicate detection. Hoặc khi có những message mà không thể để mất hoặc trùng lặp</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Advanced features</t>
+  </si>
+  <si>
+    <t>Scheduled delivery</t>
+  </si>
+  <si>
+    <t>Filters and actions</t>
+  </si>
+  <si>
+    <t>Geo-disaster recovery</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/azure/service-bus-messaging/service-bus-messaging-overview</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/azure/event-hubs/event-hubs-about</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/azure/event-grid/overview</t>
+  </si>
+  <si>
+    <t>Queues: Sử dụng pull model, chỉ deliver message khi được yêu cầu</t>
+  </si>
+  <si>
+    <t>Namespaces: Là container để chứa queue và topic</t>
+  </si>
+  <si>
+    <t>Message sessions: Để đảm bảo FIFO &gt; sử dụng message session</t>
+  </si>
+  <si>
+    <t>Auto-forwarding: Dùng để chuyển tiếp từ queue này sang queue khác, từ subcription này qua topic khác (nằm trong cùng 1 namespace)</t>
+  </si>
+  <si>
+    <t>Dead-lettering: Là 1 hàng đợi thứ 2, nhằm lưu các message ko deviler được hoặc ko xử lý được</t>
+  </si>
+  <si>
+    <t>Message deferral: Vì 1 lý do nào đó mà message bị trì hoãn gửi đến, thì message đó sẽ được gửi lại 1 thời gian sau</t>
+  </si>
+  <si>
+    <t>Transactions: Nhóm các thao tác lại trong 1 lần xử lý</t>
+  </si>
+  <si>
+    <t>Auto-delete on idle: Cho phép chỉ định khoảng thời gian khi queue ko hoạt động thì tự động xóa, tối thiểu là 5 mins</t>
+  </si>
+  <si>
+    <t>Duplicate detection: Nếu có lỗi bất thường xảy ra, cho phép sender gửi lại message đồng thời xóa message trùng lặp nếu có trong queue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3613,769 +3726,769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView topLeftCell="A140" workbookViewId="0">
       <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B92" s="7" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B93" s="7" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B96" s="7" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E104" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E106" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B111" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B112" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116" s="7" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E104" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E106" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B127" s="7" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140" s="7" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141" s="7" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142" s="7" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B146" s="7" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B149" s="7" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C151" s="7" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="7" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D152" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D154" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C155" s="7" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="7" t="s">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
         <v>916</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="7" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="7" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="7" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -4385,380 +4498,380 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="B7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="C28" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="C29" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="C30" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="C31" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="C34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="D35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="C37" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="D38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="C40" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="D41" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="C43" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="D44" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="C46" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="D47" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="C49" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="D50" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="D51" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
       <c r="C53" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="D54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4766,478 +4879,478 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="7" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C73" s="7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D101" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108" s="7" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="7" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="7" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
         <v>768</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="7" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -5246,777 +5359,777 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B109" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B121" s="1">
         <v>1433</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B136" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B140" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B148" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B152" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="157" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B168" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B172" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B176" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B180" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="https://docs.microsoft.com/en-us/azure/logic-apps/manage-logic-apps-with-visual-studio" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B67" r:id="rId2" display="https://docs.microsoft.com/en-us/azure/cdn/cdn-features" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId1" display="https://docs.microsoft.com/en-us/azure/logic-apps/manage-logic-apps-with-visual-studio"/>
+    <hyperlink ref="B67" r:id="rId2" display="https://docs.microsoft.com/en-us/azure/cdn/cdn-features"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6024,295 +6137,295 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
         <v>944</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -6322,323 +6435,323 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>312</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6648,527 +6761,527 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B54" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B64" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D70" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B83" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D87" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E90" s="19" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B94" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
       <c r="C95" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
       <c r="C96" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97" s="7"/>
       <c r="C97" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98" s="7"/>
       <c r="C98" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101" s="7"/>
       <c r="C101" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102" s="7"/>
       <c r="C102" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105" s="7"/>
       <c r="C105" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106" s="7"/>
       <c r="C106" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107" s="7"/>
       <c r="D107" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108" s="7"/>
       <c r="D108" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120" s="7" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A62" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A58" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A59" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A62" r:id="rId1"/>
+    <hyperlink ref="A58" r:id="rId2"/>
+    <hyperlink ref="A59" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -7176,488 +7289,488 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="12"/>
+    <col min="1" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E6" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="12" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="C41" s="12" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="12" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="12" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="13"/>
       <c r="B53" s="12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
       <c r="B55" s="12" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
       <c r="B56" s="12" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="13"/>
     </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B69" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B71" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B72" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B75" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B76" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B77" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B80" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C81" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B82" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C83" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B84" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C85" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B86" s="12" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C87" s="12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D88" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D89" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="12" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="12" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="12" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A61" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A62" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A63" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A61" r:id="rId1"/>
+    <hyperlink ref="A62" r:id="rId2"/>
+    <hyperlink ref="A63" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -7665,892 +7778,1136 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="17"/>
+      <c r="C4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="17"/>
+      <c r="C6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="13" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="17"/>
+      <c r="C8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="17"/>
+      <c r="C9" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="17"/>
+      <c r="C10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="17"/>
+      <c r="C11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="17"/>
+      <c r="D12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
+      <c r="D13" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="17"/>
+      <c r="D14" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="17"/>
+      <c r="D15" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="13" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="17"/>
+      <c r="C17" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="17"/>
+      <c r="C18" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="17"/>
+      <c r="C19" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="17"/>
+      <c r="C20" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="17"/>
+      <c r="D21" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="17"/>
+      <c r="D22" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="17"/>
+      <c r="D23" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="13" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="13"/>
+      <c r="C25" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="13"/>
+      <c r="C28" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="13"/>
+      <c r="D29" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="13"/>
+      <c r="D30" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="13"/>
+      <c r="D31" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="D32" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="18"/>
+      <c r="B70" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="C73" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="C74" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="18"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="18"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="17"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="17"/>
+      <c r="B86" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="17"/>
+      <c r="B87" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="17"/>
+      <c r="B88" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="17"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="17"/>
+      <c r="B91" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="17"/>
+      <c r="B92" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="17"/>
+      <c r="B93" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="17"/>
+      <c r="B94" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="17"/>
+      <c r="B95" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="C39" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="C40" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A48" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A63" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A64" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A80" r:id="rId2"/>
+    <hyperlink ref="A35" r:id="rId3"/>
+    <hyperlink ref="A69" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="18" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D107" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D113" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D131" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E132" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D136" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E137" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E138" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D139" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E137" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E138" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -8560,156 +8917,156 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A28" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -8717,363 +9074,363 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E49" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E55" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E57" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
